--- a/Timesheets/Timesheet - Riaan.xlsx
+++ b/Timesheets/Timesheet - Riaan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="November 2013" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>Person</t>
   </si>
@@ -72,6 +72,39 @@
   </si>
   <si>
     <t>Listings User Control</t>
+  </si>
+  <si>
+    <t>Resource Upload frontend</t>
+  </si>
+  <si>
+    <t>API's  &amp; Resource Upload frontend</t>
+  </si>
+  <si>
+    <t>API's &amp; Resource Upload frontend</t>
+  </si>
+  <si>
+    <t>Featured Resources Frontend</t>
+  </si>
+  <si>
+    <t>Resource Listings frontend</t>
+  </si>
+  <si>
+    <t>Resource View Frontend</t>
+  </si>
+  <si>
+    <t>API's</t>
+  </si>
+  <si>
+    <t>Resource Menu</t>
+  </si>
+  <si>
+    <t>Resource  Approval Frontend</t>
+  </si>
+  <si>
+    <t>Resource Approval Frontend and API's</t>
+  </si>
+  <si>
+    <t>Api's &amp;  Approval</t>
   </si>
 </sst>
 </file>
@@ -431,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -689,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,91 +749,211 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4">
+        <v>41609</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4">
+        <v>41611</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4">
+        <v>41615</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4">
+        <v>41616</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4">
+        <v>41618</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4">
+        <v>41619</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4">
+        <v>41620</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4">
+        <v>41626</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4">
+        <v>41627</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4">
+        <v>41636</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4">
+        <v>41637</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4">
+        <v>41638</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
@@ -814,7 +967,7 @@
       </c>
       <c r="C20">
         <f>SUM(C4:C18)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheets/Timesheet - Riaan.xlsx
+++ b/Timesheets/Timesheet - Riaan.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="November 2013" sheetId="1" r:id="rId1"/>
     <sheet name="December 2013" sheetId="4" r:id="rId2"/>
+    <sheet name="January 2014" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>Person</t>
   </si>
@@ -105,6 +106,12 @@
   </si>
   <si>
     <t>Api's &amp;  Approval</t>
+  </si>
+  <si>
+    <t>Resource Upload</t>
+  </si>
+  <si>
+    <t>Resource Upload Controller and frontend</t>
   </si>
 </sst>
 </file>
@@ -722,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="A2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,4 +981,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>41643</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>41644</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C4:C18)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Timesheets/Timesheet - Riaan.xlsx
+++ b/Timesheets/Timesheet - Riaan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>Person</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Resource Upload Controller and frontend</t>
+  </si>
+  <si>
+    <t>Resource Upload, Publisher, Author</t>
+  </si>
+  <si>
+    <t>Resource Download &amp; View</t>
+  </si>
+  <si>
+    <t>Resource File Download</t>
   </si>
 </sst>
 </file>
@@ -988,7 +997,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,19 +1065,46 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4">
+        <v>41646</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4">
+        <v>41647</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1106,7 +1142,7 @@
       </c>
       <c r="C20">
         <f>SUM(C4:C18)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheets/Timesheet - Riaan.xlsx
+++ b/Timesheets/Timesheet - Riaan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>Person</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Resource File Download</t>
+  </si>
+  <si>
+    <t>Resource Upload Facelift &amp; Changes</t>
   </si>
 </sst>
 </file>
@@ -739,7 +742,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="A2:D20"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +1000,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1110,18 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4">
+        <v>41648</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1142,7 +1156,7 @@
       </c>
       <c r="C20">
         <f>SUM(C4:C18)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheets/Timesheet - Riaan.xlsx
+++ b/Timesheets/Timesheet - Riaan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>Person</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Resource Upload Facelift &amp; Changes</t>
+  </si>
+  <si>
+    <t>Resource Upload changes</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1003,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1127,18 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4">
+        <v>41652</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1156,7 +1170,7 @@
       </c>
       <c r="C20">
         <f>SUM(C4:C18)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheets/Timesheet - Riaan.xlsx
+++ b/Timesheets/Timesheet - Riaan.xlsx
@@ -1003,7 +1003,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1134,7 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C20">
         <f>SUM(C4:C18)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheets/Timesheet - Riaan.xlsx
+++ b/Timesheets/Timesheet - Riaan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>Person</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Resource Upload changes</t>
+  </si>
+  <si>
+    <t>Resource Edit</t>
+  </si>
+  <si>
+    <t>Resource Upload changes and Resource Edit</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1009,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,10 +1147,32 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4">
+        <v>41653</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4">
+        <v>41655</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>4.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1170,7 +1198,7 @@
       </c>
       <c r="C20">
         <f>SUM(C4:C18)</f>
-        <v>36</v>
+        <v>45.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheets/Timesheet - Riaan.xlsx
+++ b/Timesheets/Timesheet - Riaan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>Person</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Resource Upload changes and Resource Edit</t>
+  </si>
+  <si>
+    <t>Resource View &amp; Listings</t>
+  </si>
+  <si>
+    <t>ResourceView, Listings, Uploads &amp; Search</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +757,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1015,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,13 +1181,46 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4">
+        <v>41656</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>4.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4">
+        <v>41657</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4">
+        <v>41658</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -1198,7 +1237,7 @@
       </c>
       <c r="C20">
         <f>SUM(C4:C18)</f>
-        <v>45.5</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
